--- a/Questionnaire data.xlsx
+++ b/Questionnaire data.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSc\Sem 03\Statistical Inference\Questionnaire\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSc\Sem 03\Statistical Inference\Questionnaire\Data\final data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CE800D10-0AD5-44F9-AE32-DC26D159C786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642303D0-3E3B-42FF-8B17-39C76A92BB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Data dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="101">
   <si>
     <t>What gender do you identify as?</t>
   </si>
@@ -324,30 +323,12 @@
   </si>
   <si>
     <t>Bill payment;Purchasing;Cash withdrawal;Balance inquiry / Bank statement;Periodical payments [daily, weekly, monthly, quarterly, yearly, seasonal]</t>
-  </si>
-  <si>
-    <t>Employed;full time [40 + hours a week]</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Sample answer</t>
-  </si>
-  <si>
-    <t>Data type</t>
-  </si>
-  <si>
-    <t>Nominal</t>
-  </si>
-  <si>
-    <t>Ordinal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -825,15 +806,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1188,11 +1162,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,284 +3659,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="74.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>